--- a/bulk-filler/test_data.xlsx
+++ b/bulk-filler/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ejust\GitProjects\pdf-bulk-filler\bulk-filler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D185FDF-CE23-4653-B101-3491A829B362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65FED72-29D6-4280-B83A-872038C5D087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35151AED-4D87-49D1-96FF-295D9B263521}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Test0</t>
   </si>
@@ -52,6 +49,27 @@
   </si>
   <si>
     <t>Test4</t>
+  </si>
+  <si>
+    <t>Header 1</t>
+  </si>
+  <si>
+    <t>Header 2</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
   </si>
 </sst>
 </file>
@@ -403,42 +421,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFB7502-4BEE-4176-BD54-AE6352835DED}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/bulk-filler/test_data.xlsx
+++ b/bulk-filler/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ejust\GitProjects\pdf-bulk-filler\bulk-filler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65FED72-29D6-4280-B83A-872038C5D087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47334DDF-D8FA-4EF7-8326-B6A34B3F3B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35151AED-4D87-49D1-96FF-295D9B263521}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <t>T3</t>
   </si>
   <si>
-    <t>T4</t>
+    <t xml:space="preserve">T4 </t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
